--- a/LongTextPrompts/articles.xlsx
+++ b/LongTextPrompts/articles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lzd\Desktop\EMNLP 2024\DocDoc\LongTextPrompts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA806A5-33B5-44F3-8FCC-FAD6C5D8B53F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4F0725-75B2-4C5F-A583-2CABA312AF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="326">
   <si>
     <t>id</t>
   </si>
@@ -997,6 +997,14 @@
   </si>
   <si>
     <t>Prompt_For_DocDoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt_For_Single</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt_For_Sequential</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,21 +1357,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E101" sqref="A1:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54.4140625" customWidth="1"/>
     <col min="3" max="3" width="24.83203125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="29.08203125" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" customWidth="1"/>
     <col min="6" max="6" width="44.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1382,8 +1391,14 @@
       <c r="F1" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="G1" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1401,7 +1416,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1419,7 +1434,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1439,7 +1454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1499,7 +1514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1519,7 +1534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1539,7 +1554,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1559,7 +1574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1579,7 +1594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1599,7 +1614,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1619,7 +1634,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1639,7 +1654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1659,7 +1674,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
